--- a/Team-Data/2020-21/1-14-2020-21.xlsx
+++ b/Team-Data/2020-21/1-14-2020-21.xlsx
@@ -2234,16 +2234,16 @@
         <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2315,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
         <v>20</v>
@@ -2497,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -5409,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>12</v>
